--- a/TestCase/output.xlsx
+++ b/TestCase/output.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B11FA73-A220-40C3-9ABE-D4E6829FD0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,54 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r4f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rgh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rhd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hkm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uyy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ytr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ryj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wfx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hfr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dvb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>efg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>錄取校名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,19 +109,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未錄取</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊順亦</t>
+  </si>
+  <si>
+    <t>劉雅書</t>
+  </si>
+  <si>
+    <t>郭姵紫</t>
+  </si>
+  <si>
+    <t>陳怡喬</t>
+  </si>
+  <si>
+    <t>林宜禾</t>
+  </si>
+  <si>
+    <t>曹昀志</t>
+  </si>
+  <si>
+    <t>李偉昀</t>
+  </si>
+  <si>
+    <t>陳雅玲</t>
+  </si>
+  <si>
+    <t>陳建緯</t>
+  </si>
+  <si>
+    <t>毛雲誠</t>
+  </si>
+  <si>
+    <t>許俊玲</t>
+  </si>
+  <si>
+    <t>王梅智</t>
+  </si>
+  <si>
+    <t>林佳蓉</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +169,26 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -204,14 +212,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -305,6 +315,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -340,6 +367,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,20 +559,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="15.1796875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="15.1796875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,238 +581,239 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>11080002</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>2004</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>11080003</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>11080004</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>2004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>11080005</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>11080006</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>11080007</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>3009</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>11080008</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="1">
         <v>3009</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>11080009</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="1">
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>11080010</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>11080011</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E11" s="1">
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11080012</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E12" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11080013</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E13" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>11080014</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestCase/output.xlsx
+++ b/TestCase/output.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B11FA73-A220-40C3-9ABE-D4E6829FD0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01629120-1EB6-4F8B-9477-D9A1AC63EBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
